--- a/ccbhc_measurements/dashboard/excel files/ASC_sub_1_stratification.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/ASC_sub_1_stratification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D523"/>
+  <dimension ref="A1:C523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>patient_measurement_year_id</t>
+          <t>patient_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -447,18 +447,13 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>race</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>medicaid</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10025-2024</t>
+          <t>10025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,15 +465,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10047-2024</t>
+          <t>10047</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -489,18 +481,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10150-2024</t>
+          <t>10150</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -512,15 +499,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10266-2024</t>
+          <t>10266</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -532,15 +516,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10299-2024</t>
+          <t>10299</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -552,15 +533,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10309-2024</t>
+          <t>10309</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -571,18 +549,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10417-2024</t>
+          <t>10417</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -594,15 +567,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10436-2024</t>
+          <t>10436</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -611,11 +581,6 @@
         </is>
       </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -624,7 +589,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10452-2024</t>
+          <t>10452</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -636,15 +601,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10686-2024</t>
+          <t>10686</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -655,18 +617,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10874-2024</t>
+          <t>10874</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -678,15 +635,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11226-2024</t>
+          <t>11226</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -697,18 +651,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11332-2024</t>
+          <t>11332</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -720,15 +669,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11461-2024</t>
+          <t>11461</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -740,15 +686,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11524-2024</t>
+          <t>11524</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -760,15 +703,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11534-2024</t>
+          <t>11534</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -780,15 +720,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11710-2024</t>
+          <t>11710</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -799,18 +736,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11811-2024</t>
+          <t>11811</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -821,18 +753,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11816-2024</t>
+          <t>11816</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -843,18 +770,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11884-2024</t>
+          <t>11884</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -865,18 +787,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11994-2024</t>
+          <t>11994</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -888,15 +805,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12169-2024</t>
+          <t>12169</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -908,15 +822,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12578-2024</t>
+          <t>12578</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -927,18 +838,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12947-2024</t>
+          <t>12947</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -949,18 +855,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>13082-2024</t>
+          <t>13082</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -972,15 +873,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>13113-2024</t>
+          <t>13113</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -992,15 +890,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>13211-2024</t>
+          <t>13211</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1011,18 +906,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>13222-2024</t>
+          <t>13222</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1033,18 +923,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13225-2024</t>
+          <t>13225</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1053,11 +938,6 @@
         </is>
       </c>
       <c r="C30" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1066,7 +946,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>13285-2024</t>
+          <t>13285</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1077,18 +957,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13394-2024</t>
+          <t>13394</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1100,15 +975,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13686-2024</t>
+          <t>13686</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1120,15 +992,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>13847-2024</t>
+          <t>13847</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1137,11 +1006,6 @@
         </is>
       </c>
       <c r="C34" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1150,7 +1014,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>13854-2024</t>
+          <t>13854</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1162,15 +1026,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14011-2024</t>
+          <t>14011</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1182,15 +1043,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14630-2024</t>
+          <t>14630</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1201,18 +1059,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>14690-2024</t>
+          <t>14690</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1224,15 +1077,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>14941-2024</t>
+          <t>14941</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1244,15 +1094,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>14982-2024</t>
+          <t>14982</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1264,15 +1111,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15302-2024</t>
+          <t>15302</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1284,15 +1128,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>15349-2024</t>
+          <t>15349</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1303,18 +1144,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>15486-2024</t>
+          <t>15486</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1326,15 +1162,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>15849-2024</t>
+          <t>15849</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1345,18 +1178,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>15955-2024</t>
+          <t>15955</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1367,18 +1195,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>16034-2024</t>
+          <t>16034</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1390,15 +1213,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>16066-2024</t>
+          <t>16066</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1410,15 +1230,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>16464-2024</t>
+          <t>16464</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1430,15 +1247,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>16601-2024</t>
+          <t>16601</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1449,18 +1263,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>16712-2024</t>
+          <t>16712</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1469,11 +1278,6 @@
         </is>
       </c>
       <c r="C50" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1482,7 +1286,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>17067-2024</t>
+          <t>17067</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1493,18 +1297,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>17718-2024</t>
+          <t>17718</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1515,18 +1314,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>17759-2024</t>
+          <t>17759</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1538,15 +1332,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>18408-2024</t>
+          <t>18408</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1555,11 +1346,6 @@
         </is>
       </c>
       <c r="C54" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1568,7 +1354,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>18666-2024</t>
+          <t>18666</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1577,11 +1363,6 @@
         </is>
       </c>
       <c r="C55" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1590,7 +1371,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>18906-2024</t>
+          <t>18906</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1602,15 +1383,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D56" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19142-2024</t>
+          <t>19142</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1619,11 +1397,6 @@
         </is>
       </c>
       <c r="C57" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1632,7 +1405,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>19171-2024</t>
+          <t>19171</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1643,18 +1416,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>19629-2024</t>
+          <t>19629</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1663,11 +1431,6 @@
         </is>
       </c>
       <c r="C59" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1676,7 +1439,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>19813-2024</t>
+          <t>19813</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1687,18 +1450,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>19831-2024</t>
+          <t>19831</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1710,15 +1468,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>19950-2024</t>
+          <t>19950</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1727,11 +1482,6 @@
         </is>
       </c>
       <c r="C62" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1740,7 +1490,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20433-2024</t>
+          <t>20433</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1751,18 +1501,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20897-2024</t>
+          <t>20897</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1773,18 +1518,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21664-2024</t>
+          <t>21664</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1796,15 +1536,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>21966-2024</t>
+          <t>21966</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1813,11 +1550,6 @@
         </is>
       </c>
       <c r="C66" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1826,7 +1558,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>22029-2024</t>
+          <t>22029</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1838,15 +1570,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D67" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22381-2024</t>
+          <t>22381</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1858,15 +1587,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D68" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>22536-2024</t>
+          <t>22536</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1877,18 +1603,13 @@
       <c r="C69" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>22566-2024</t>
+          <t>22566</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1900,15 +1621,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D70" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>22636-2024</t>
+          <t>22636</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1920,15 +1638,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>22642-2024</t>
+          <t>22642</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1937,11 +1652,6 @@
         </is>
       </c>
       <c r="C72" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1950,7 +1660,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>22777-2024</t>
+          <t>22777</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1962,15 +1672,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D73" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>22911-2024</t>
+          <t>22911</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1981,18 +1688,13 @@
       <c r="C74" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>23056-2024</t>
+          <t>23056</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2003,18 +1705,13 @@
       <c r="C75" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>23079-2024</t>
+          <t>23079</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2023,11 +1720,6 @@
         </is>
       </c>
       <c r="C76" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -2036,7 +1728,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>23216-2024</t>
+          <t>23216</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2047,18 +1739,13 @@
       <c r="C77" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>23399-2024</t>
+          <t>23399</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2070,15 +1757,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D78" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>23635-2024</t>
+          <t>23635</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2090,15 +1774,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D79" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>23729-2024</t>
+          <t>23729</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2109,18 +1790,13 @@
       <c r="C80" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>23781-2024</t>
+          <t>23781</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2131,18 +1807,13 @@
       <c r="C81" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>23879-2024</t>
+          <t>23879</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2153,18 +1824,13 @@
       <c r="C82" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>24129-2024</t>
+          <t>24129</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2175,18 +1841,13 @@
       <c r="C83" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>24295-2024</t>
+          <t>24295</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2197,18 +1858,13 @@
       <c r="C84" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>24633-2024</t>
+          <t>24633</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2220,15 +1876,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D85" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>25320-2024</t>
+          <t>25320</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2240,15 +1893,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D86" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>25557-2024</t>
+          <t>25557</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2259,18 +1909,13 @@
       <c r="C87" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>25701-2024</t>
+          <t>25701</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2282,15 +1927,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D88" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>25702-2024</t>
+          <t>25702</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2301,18 +1943,13 @@
       <c r="C89" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>25747-2024</t>
+          <t>25747</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2323,18 +1960,13 @@
       <c r="C90" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>25762-2024</t>
+          <t>25762</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2345,18 +1977,13 @@
       <c r="C91" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>26444-2024</t>
+          <t>26444</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2367,18 +1994,13 @@
       <c r="C92" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>26830-2024</t>
+          <t>26830</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2390,15 +2012,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D93" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>26865-2024</t>
+          <t>26865</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2410,15 +2029,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D94" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>27303-2024</t>
+          <t>27303</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2430,15 +2046,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D95" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>27320-2024</t>
+          <t>27320</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2449,18 +2062,13 @@
       <c r="C96" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>27472-2024</t>
+          <t>27472</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2471,18 +2079,13 @@
       <c r="C97" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>27870-2024</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2493,18 +2096,13 @@
       <c r="C98" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>28267-2024</t>
+          <t>28267</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2515,18 +2113,13 @@
       <c r="C99" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>28526-2024</t>
+          <t>28526</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2538,15 +2131,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D100" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>28722-2024</t>
+          <t>28722</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2558,15 +2148,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D101" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>28764-2024</t>
+          <t>28764</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2577,18 +2164,13 @@
       <c r="C102" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>28894-2024</t>
+          <t>28894</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2600,15 +2182,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D103" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>29207-2024</t>
+          <t>29207</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2620,15 +2199,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D104" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>29231-2024</t>
+          <t>29231</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2640,15 +2216,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D105" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>29306-2024</t>
+          <t>29306</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2659,18 +2232,13 @@
       <c r="C106" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>29653-2024</t>
+          <t>29653</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2682,15 +2250,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D107" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>29835-2024</t>
+          <t>29835</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2702,15 +2267,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D108" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>29870-2024</t>
+          <t>29870</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2721,18 +2283,13 @@
       <c r="C109" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>29933-2024</t>
+          <t>29933</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2744,15 +2301,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D110" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>30238-2024</t>
+          <t>30238</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2763,18 +2317,13 @@
       <c r="C111" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>30272-2024</t>
+          <t>30272</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2785,18 +2334,13 @@
       <c r="C112" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>30441-2024</t>
+          <t>30441</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2807,18 +2351,13 @@
       <c r="C113" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>30446-2024</t>
+          <t>30446</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2830,15 +2369,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D114" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>30575-2024</t>
+          <t>30575</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2850,15 +2386,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D115" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>30796-2024</t>
+          <t>30796</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2869,18 +2402,13 @@
       <c r="C116" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>30891-2024</t>
+          <t>30891</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2891,18 +2419,13 @@
       <c r="C117" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>30925-2024</t>
+          <t>30925</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2913,18 +2436,13 @@
       <c r="C118" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>30987-2024</t>
+          <t>30987</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2936,15 +2454,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D119" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>31023-2024</t>
+          <t>31023</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2955,18 +2470,13 @@
       <c r="C120" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>31192-2024</t>
+          <t>31192</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2977,18 +2487,13 @@
       <c r="C121" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>31435-2024</t>
+          <t>31435</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2999,18 +2504,13 @@
       <c r="C122" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>31457-2024</t>
+          <t>31457</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3022,15 +2522,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D123" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>31470-2024</t>
+          <t>31470</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3039,11 +2536,6 @@
         </is>
       </c>
       <c r="C124" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -3052,7 +2544,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>31513-2024</t>
+          <t>31513</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3064,15 +2556,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D125" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>31833-2024</t>
+          <t>31833</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3084,15 +2573,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D126" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>32227-2024</t>
+          <t>32227</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3103,18 +2589,13 @@
       <c r="C127" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>32391-2024</t>
+          <t>32391</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3126,15 +2607,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D128" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>32851-2024</t>
+          <t>32851</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3146,15 +2624,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D129" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>33069-2024</t>
+          <t>33069</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3166,15 +2641,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D130" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>33110-2024</t>
+          <t>33110</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3186,15 +2658,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D131" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>33137-2024</t>
+          <t>33137</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3206,15 +2675,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D132" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>33311-2024</t>
+          <t>33311</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3226,15 +2692,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D133" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>33445-2024</t>
+          <t>33445</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3246,15 +2709,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D134" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>33622-2024</t>
+          <t>33622</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3266,15 +2726,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D135" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>33647-2024</t>
+          <t>33647</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3286,15 +2743,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D136" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>33809-2024</t>
+          <t>33809</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3306,15 +2760,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D137" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>33855-2024</t>
+          <t>33855</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3326,15 +2777,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D138" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>33890-2024</t>
+          <t>33890</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3345,18 +2793,13 @@
       <c r="C139" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>34229-2024</t>
+          <t>34229</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3367,18 +2810,13 @@
       <c r="C140" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>34356-2024</t>
+          <t>34356</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3390,15 +2828,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D141" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>34630-2024</t>
+          <t>34630</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3409,18 +2844,13 @@
       <c r="C142" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>34635-2024</t>
+          <t>34635</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3432,15 +2862,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D143" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>34677-2024</t>
+          <t>34677</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3452,15 +2879,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D144" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>34899-2024</t>
+          <t>34899</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3471,18 +2895,13 @@
       <c r="C145" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>35567-2024</t>
+          <t>35567</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3494,15 +2913,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D146" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>35809-2024</t>
+          <t>35809</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3511,11 +2927,6 @@
         </is>
       </c>
       <c r="C147" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -3524,7 +2935,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>36423-2024</t>
+          <t>36423</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3535,18 +2946,13 @@
       <c r="C148" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>36523-2024</t>
+          <t>36523</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3555,11 +2961,6 @@
         </is>
       </c>
       <c r="C149" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -3568,7 +2969,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>36742-2024</t>
+          <t>36742</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3580,15 +2981,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D150" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>36963-2024</t>
+          <t>36963</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3599,18 +2997,13 @@
       <c r="C151" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>37163-2024</t>
+          <t>37163</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3621,18 +3014,13 @@
       <c r="C152" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>37174-2024</t>
+          <t>37174</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3644,15 +3032,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D153" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>37348-2024</t>
+          <t>37348</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3664,15 +3049,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D154" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>37540-2024</t>
+          <t>37540</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3681,11 +3063,6 @@
         </is>
       </c>
       <c r="C155" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -3694,7 +3071,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>37630-2024</t>
+          <t>37630</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3706,15 +3083,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D156" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>37943-2024</t>
+          <t>37943</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3726,15 +3100,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D157" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>37983-2024</t>
+          <t>37983</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3745,18 +3116,13 @@
       <c r="C158" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>37995-2024</t>
+          <t>37995</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3767,18 +3133,13 @@
       <c r="C159" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>38189-2024</t>
+          <t>38189</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3789,18 +3150,13 @@
       <c r="C160" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>38228-2024</t>
+          <t>38228</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3812,15 +3168,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D161" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>38361-2024</t>
+          <t>38361</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3831,18 +3184,13 @@
       <c r="C162" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>38375-2024</t>
+          <t>38375</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3853,18 +3201,13 @@
       <c r="C163" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>38678-2024</t>
+          <t>38678</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3873,11 +3216,6 @@
         </is>
       </c>
       <c r="C164" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -3886,7 +3224,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>38788-2024</t>
+          <t>38788</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3898,15 +3236,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D165" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>38852-2024</t>
+          <t>38852</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3918,15 +3253,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D166" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>39113-2024</t>
+          <t>39113</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3938,15 +3270,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D167" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>39150-2024</t>
+          <t>39150</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3957,18 +3286,13 @@
       <c r="C168" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>39459-2024</t>
+          <t>39459</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3980,15 +3304,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D169" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>39533-2024</t>
+          <t>39533</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3997,11 +3318,6 @@
         </is>
       </c>
       <c r="C170" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -4010,7 +3326,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>39962-2024</t>
+          <t>39962</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4021,18 +3337,13 @@
       <c r="C171" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>39981-2024</t>
+          <t>39981</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4044,15 +3355,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D172" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>40030-2024</t>
+          <t>40030</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4063,18 +3371,13 @@
       <c r="C173" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>40130-2024</t>
+          <t>40130</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4086,15 +3389,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D174" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>40440-2024</t>
+          <t>40440</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4103,11 +3403,6 @@
         </is>
       </c>
       <c r="C175" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -4116,7 +3411,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>40562-2024</t>
+          <t>40562</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4127,18 +3422,13 @@
       <c r="C176" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>40571-2024</t>
+          <t>40571</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4149,18 +3439,13 @@
       <c r="C177" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>40576-2024</t>
+          <t>40576</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4169,11 +3454,6 @@
         </is>
       </c>
       <c r="C178" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -4182,7 +3462,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>40609-2024</t>
+          <t>40609</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4193,18 +3473,13 @@
       <c r="C179" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>4139-2024</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4213,11 +3488,6 @@
         </is>
       </c>
       <c r="C180" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -4226,7 +3496,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>41448-2024</t>
+          <t>41448</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4237,18 +3507,13 @@
       <c r="C181" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>4149-2024</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4257,11 +3522,6 @@
         </is>
       </c>
       <c r="C182" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -4270,7 +3530,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>41635-2024</t>
+          <t>41635</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4281,18 +3541,13 @@
       <c r="C183" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>41971-2024</t>
+          <t>41971</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4301,11 +3556,6 @@
         </is>
       </c>
       <c r="C184" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -4314,7 +3564,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>42091-2024</t>
+          <t>42091</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4325,18 +3575,13 @@
       <c r="C185" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>42149-2024</t>
+          <t>42149</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4348,15 +3593,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D186" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>42585-2024</t>
+          <t>42585</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4368,15 +3610,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D187" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>42629-2024</t>
+          <t>42629</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4387,18 +3626,13 @@
       <c r="C188" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>42654-2024</t>
+          <t>42654</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4409,18 +3643,13 @@
       <c r="C189" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>42824-2024</t>
+          <t>42824</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4429,11 +3658,6 @@
         </is>
       </c>
       <c r="C190" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -4442,7 +3666,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>42934-2024</t>
+          <t>42934</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4453,18 +3677,13 @@
       <c r="C191" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>42937-2024</t>
+          <t>42937</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4476,15 +3695,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D192" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>43142-2024</t>
+          <t>43142</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4496,15 +3712,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D193" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>43438-2024</t>
+          <t>43438</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4513,11 +3726,6 @@
         </is>
       </c>
       <c r="C194" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -4526,7 +3734,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>43829-2024</t>
+          <t>43829</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4538,15 +3746,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D195" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>43967-2024</t>
+          <t>43967</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4558,15 +3763,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D196" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>44070-2024</t>
+          <t>44070</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4578,15 +3780,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D197" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>44188-2024</t>
+          <t>44188</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4597,18 +3796,13 @@
       <c r="C198" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>44221-2024</t>
+          <t>44221</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4620,15 +3814,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D199" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>44516-2024</t>
+          <t>44516</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4640,15 +3831,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D200" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>44639-2024</t>
+          <t>44639</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4660,15 +3848,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D201" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>44647-2024</t>
+          <t>44647</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4680,15 +3865,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D202" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>44767-2024</t>
+          <t>44767</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4700,15 +3882,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D203" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>45147-2024</t>
+          <t>45147</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4717,11 +3896,6 @@
         </is>
       </c>
       <c r="C204" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -4730,7 +3904,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>45371-2024</t>
+          <t>45371</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4742,15 +3916,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D205" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>45421-2024</t>
+          <t>45421</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4762,15 +3933,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D206" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>45733-2024</t>
+          <t>45733</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4782,15 +3950,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D207" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>45820-2024</t>
+          <t>45820</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4801,18 +3966,13 @@
       <c r="C208" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>46212-2024</t>
+          <t>46212</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4824,15 +3984,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D209" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>46388-2024</t>
+          <t>46388</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4843,18 +4000,13 @@
       <c r="C210" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>46455-2024</t>
+          <t>46455</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4865,18 +4017,13 @@
       <c r="C211" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>46697-2024</t>
+          <t>46697</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4885,11 +4032,6 @@
         </is>
       </c>
       <c r="C212" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -4898,7 +4040,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>47462-2024</t>
+          <t>47462</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4910,15 +4052,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D213" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>47561-2024</t>
+          <t>47561</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4930,15 +4069,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D214" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>47787-2024</t>
+          <t>47787</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4950,15 +4086,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D215" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>47986-2024</t>
+          <t>47986</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4970,15 +4103,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D216" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>48003-2024</t>
+          <t>48003</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4990,15 +4120,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D217" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>48117-2024</t>
+          <t>48117</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5010,15 +4137,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D218" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>48229-2024</t>
+          <t>48229</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5030,15 +4154,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D219" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>48605-2024</t>
+          <t>48605</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5047,11 +4168,6 @@
         </is>
       </c>
       <c r="C220" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -5060,7 +4176,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>49143-2024</t>
+          <t>49143</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5069,11 +4185,6 @@
         </is>
       </c>
       <c r="C221" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -5082,7 +4193,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>49341-2024</t>
+          <t>49341</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5094,15 +4205,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D222" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>49432-2024</t>
+          <t>49432</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5114,15 +4222,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D223" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>49495-2024</t>
+          <t>49495</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5131,11 +4236,6 @@
         </is>
       </c>
       <c r="C224" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -5144,7 +4244,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>49611-2024</t>
+          <t>49611</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5153,11 +4253,6 @@
         </is>
       </c>
       <c r="C225" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -5166,7 +4261,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>49809-2024</t>
+          <t>49809</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5178,15 +4273,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D226" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>50174-2024</t>
+          <t>50174</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5198,15 +4290,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D227" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>50481-2024</t>
+          <t>50481</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5217,18 +4306,13 @@
       <c r="C228" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>50598-2024</t>
+          <t>50598</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5237,11 +4321,6 @@
         </is>
       </c>
       <c r="C229" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -5250,7 +4329,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>50612-2024</t>
+          <t>50612</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5261,18 +4340,13 @@
       <c r="C230" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>50874-2024</t>
+          <t>50874</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5284,15 +4358,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D231" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>50894-2024</t>
+          <t>50894</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5304,15 +4375,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D232" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>51160-2024</t>
+          <t>51160</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5324,15 +4392,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D233" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>51286-2024</t>
+          <t>51286</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5344,15 +4409,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D234" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>51327-2024</t>
+          <t>51327</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5364,15 +4426,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D235" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>51356-2024</t>
+          <t>51356</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5383,18 +4442,13 @@
       <c r="C236" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>51628-2024</t>
+          <t>51628</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5403,11 +4457,6 @@
         </is>
       </c>
       <c r="C237" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -5416,7 +4465,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>51813-2024</t>
+          <t>51813</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5428,15 +4477,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D238" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>51843-2024</t>
+          <t>51843</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5448,15 +4494,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D239" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>51857-2024</t>
+          <t>51857</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5467,18 +4510,13 @@
       <c r="C240" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>51964-2024</t>
+          <t>51964</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5490,15 +4528,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D241" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>52210-2024</t>
+          <t>52210</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5507,11 +4542,6 @@
         </is>
       </c>
       <c r="C242" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -5520,7 +4550,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>52225-2024</t>
+          <t>52225</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5532,15 +4562,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D243" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>52271-2024</t>
+          <t>52271</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5551,18 +4578,13 @@
       <c r="C244" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>52392-2024</t>
+          <t>52392</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5574,15 +4596,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D245" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>52435-2024</t>
+          <t>52435</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5594,15 +4613,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D246" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>52698-2024</t>
+          <t>52698</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5613,18 +4629,13 @@
       <c r="C247" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>52826-2024</t>
+          <t>52826</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5636,15 +4647,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D248" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>53000-2024</t>
+          <t>53000</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5656,15 +4664,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D249" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>53191-2024</t>
+          <t>53191</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5675,18 +4680,13 @@
       <c r="C250" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>53291-2024</t>
+          <t>53291</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5697,18 +4697,13 @@
       <c r="C251" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>53455-2024</t>
+          <t>53455</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5719,18 +4714,13 @@
       <c r="C252" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>53458-2024</t>
+          <t>53458</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5742,15 +4732,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D253" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>53981-2024</t>
+          <t>53981</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5759,11 +4746,6 @@
         </is>
       </c>
       <c r="C254" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -5772,7 +4754,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>54179-2024</t>
+          <t>54179</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5783,18 +4765,13 @@
       <c r="C255" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>54362-2024</t>
+          <t>54362</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5803,11 +4780,6 @@
         </is>
       </c>
       <c r="C256" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -5816,7 +4788,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>54365-2024</t>
+          <t>54365</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -5827,18 +4799,13 @@
       <c r="C257" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>54571-2024</t>
+          <t>54571</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5850,15 +4817,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D258" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>54736-2024</t>
+          <t>54736</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5869,18 +4833,13 @@
       <c r="C259" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>54822-2024</t>
+          <t>54822</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -5891,18 +4850,13 @@
       <c r="C260" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>54835-2024</t>
+          <t>54835</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5911,11 +4865,6 @@
         </is>
       </c>
       <c r="C261" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -5924,7 +4873,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>55022-2024</t>
+          <t>55022</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -5936,15 +4885,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D262" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>55229-2024</t>
+          <t>55229</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -5956,15 +4902,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D263" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>55444-2024</t>
+          <t>55444</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5975,18 +4918,13 @@
       <c r="C264" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>55751-2024</t>
+          <t>55751</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5998,15 +4936,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D265" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>55761-2024</t>
+          <t>55761</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6018,15 +4953,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D266" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>55839-2024</t>
+          <t>55839</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6038,15 +4970,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D267" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>55910-2024</t>
+          <t>55910</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6058,15 +4987,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D268" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>56217-2024</t>
+          <t>56217</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6078,15 +5004,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D269" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>56228-2024</t>
+          <t>56228</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6098,15 +5021,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D270" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>56293-2024</t>
+          <t>56293</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6115,11 +5035,6 @@
         </is>
       </c>
       <c r="C271" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -6128,7 +5043,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>56423-2024</t>
+          <t>56423</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6140,15 +5055,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D272" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>56442-2024</t>
+          <t>56442</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6159,18 +5071,13 @@
       <c r="C273" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>56517-2024</t>
+          <t>56517</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6181,18 +5088,13 @@
       <c r="C274" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>56655-2024</t>
+          <t>56655</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6204,15 +5106,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D275" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>57705-2024</t>
+          <t>57705</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6223,18 +5122,13 @@
       <c r="C276" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>57747-2024</t>
+          <t>57747</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6246,15 +5140,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D277" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>57936-2024</t>
+          <t>57936</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6265,18 +5156,13 @@
       <c r="C278" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>58027-2024</t>
+          <t>58027</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6287,18 +5173,13 @@
       <c r="C279" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>58181-2024</t>
+          <t>58181</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6310,15 +5191,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D280" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>58202-2024</t>
+          <t>58202</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6330,15 +5208,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D281" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>58228-2024</t>
+          <t>58228</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6349,18 +5224,13 @@
       <c r="C282" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>58231-2024</t>
+          <t>58231</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6369,11 +5239,6 @@
         </is>
       </c>
       <c r="C283" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -6382,7 +5247,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>58288-2024</t>
+          <t>58288</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6393,18 +5258,13 @@
       <c r="C284" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>58305-2024</t>
+          <t>58305</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6415,18 +5275,13 @@
       <c r="C285" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>5842-2024</t>
+          <t>5842</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6438,15 +5293,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D286" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>58563-2024</t>
+          <t>58563</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6458,15 +5310,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D287" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>58656-2024</t>
+          <t>58656</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6478,15 +5327,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D288" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>58726-2024</t>
+          <t>58726</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6497,18 +5343,13 @@
       <c r="C289" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>59152-2024</t>
+          <t>59152</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6520,15 +5361,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D290" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>59188-2024</t>
+          <t>59188</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6540,15 +5378,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D291" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>59770-2024</t>
+          <t>59770</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6559,18 +5394,13 @@
       <c r="C292" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>59997-2024</t>
+          <t>59997</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6582,15 +5412,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D293" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>60226-2024</t>
+          <t>60226</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6602,15 +5429,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D294" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>60279-2024</t>
+          <t>60279</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6622,15 +5446,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D295" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>60416-2024</t>
+          <t>60416</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6642,15 +5463,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D296" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>60442-2024</t>
+          <t>60442</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6662,15 +5480,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D297" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>60543-2024</t>
+          <t>60543</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6681,18 +5496,13 @@
       <c r="C298" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>60595-2024</t>
+          <t>60595</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -6704,15 +5514,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D299" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>60759-2024</t>
+          <t>60759</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -6723,18 +5530,13 @@
       <c r="C300" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>61096-2024</t>
+          <t>61096</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -6743,11 +5545,6 @@
         </is>
       </c>
       <c r="C301" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -6756,7 +5553,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>61142-2024</t>
+          <t>61142</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -6768,15 +5565,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D302" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>61398-2024</t>
+          <t>61398</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -6785,11 +5579,6 @@
         </is>
       </c>
       <c r="C303" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -6798,7 +5587,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>61428-2024</t>
+          <t>61428</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -6810,15 +5599,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D304" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>61553-2024</t>
+          <t>61553</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -6830,15 +5616,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D305" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>61743-2024</t>
+          <t>61743</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -6850,15 +5633,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D306" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>61918-2024</t>
+          <t>61918</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -6870,15 +5650,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D307" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>61946-2024</t>
+          <t>61946</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -6889,18 +5666,13 @@
       <c r="C308" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>62028-2024</t>
+          <t>62028</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -6911,18 +5683,13 @@
       <c r="C309" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6225-2024</t>
+          <t>6225</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -6933,18 +5700,13 @@
       <c r="C310" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>62572-2024</t>
+          <t>62572</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -6956,15 +5718,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D311" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>62663-2024</t>
+          <t>62663</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -6975,18 +5734,13 @@
       <c r="C312" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>62893-2024</t>
+          <t>62893</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -6997,18 +5751,13 @@
       <c r="C313" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>62975-2024</t>
+          <t>62975</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7020,15 +5769,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D314" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>63233-2024</t>
+          <t>63233</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7039,18 +5785,13 @@
       <c r="C315" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>63328-2024</t>
+          <t>63328</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7059,11 +5800,6 @@
         </is>
       </c>
       <c r="C316" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -7072,7 +5808,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>63451-2024</t>
+          <t>63451</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7084,15 +5820,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D317" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>63488-2024</t>
+          <t>63488</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7104,15 +5837,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D318" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>63668-2024</t>
+          <t>63668</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7121,11 +5851,6 @@
         </is>
       </c>
       <c r="C319" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -7134,7 +5859,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>63846-2024</t>
+          <t>63846</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7146,15 +5871,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D320" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>63999-2024</t>
+          <t>63999</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7165,18 +5887,13 @@
       <c r="C321" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>64035-2024</t>
+          <t>64035</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -7188,15 +5905,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D322" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>64165-2024</t>
+          <t>64165</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7208,15 +5922,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D323" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>64340-2024</t>
+          <t>64340</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7228,15 +5939,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D324" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>64450-2024</t>
+          <t>64450</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7248,15 +5956,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D325" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>64726-2024</t>
+          <t>64726</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7265,11 +5970,6 @@
         </is>
       </c>
       <c r="C326" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -7278,7 +5978,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>64952-2024</t>
+          <t>64952</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7287,11 +5987,6 @@
         </is>
       </c>
       <c r="C327" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -7300,7 +5995,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>65158-2024</t>
+          <t>65158</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7309,11 +6004,6 @@
         </is>
       </c>
       <c r="C328" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -7322,7 +6012,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>65161-2024</t>
+          <t>65161</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7334,15 +6024,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D329" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>65248-2024</t>
+          <t>65248</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7354,15 +6041,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D330" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>65312-2024</t>
+          <t>65312</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7373,18 +6057,13 @@
       <c r="C331" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>65348-2024</t>
+          <t>65348</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7395,18 +6074,13 @@
       <c r="C332" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>65490-2024</t>
+          <t>65490</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7417,18 +6091,13 @@
       <c r="C333" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>65612-2024</t>
+          <t>65612</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7440,15 +6109,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D334" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>65623-2024</t>
+          <t>65623</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7460,15 +6126,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D335" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>65901-2024</t>
+          <t>65901</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7477,11 +6140,6 @@
         </is>
       </c>
       <c r="C336" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -7490,7 +6148,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>65948-2024</t>
+          <t>65948</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7502,15 +6160,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D337" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>65977-2024</t>
+          <t>65977</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7522,15 +6177,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D338" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>66042-2024</t>
+          <t>66042</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7541,18 +6193,13 @@
       <c r="C339" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>66195-2024</t>
+          <t>66195</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7563,18 +6210,13 @@
       <c r="C340" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>66697-2024</t>
+          <t>66697</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7586,15 +6228,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D341" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>66745-2024</t>
+          <t>66745</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7606,15 +6245,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D342" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>66840-2024</t>
+          <t>66840</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -7625,18 +6261,13 @@
       <c r="C343" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>66940-2024</t>
+          <t>66940</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -7645,11 +6276,6 @@
         </is>
       </c>
       <c r="C344" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -7658,7 +6284,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>66964-2024</t>
+          <t>66964</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -7669,18 +6295,13 @@
       <c r="C345" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>67113-2024</t>
+          <t>67113</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -7691,18 +6312,13 @@
       <c r="C346" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>67177-2024</t>
+          <t>67177</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -7714,15 +6330,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D347" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>67432-2024</t>
+          <t>67432</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -7734,15 +6347,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D348" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>67456-2024</t>
+          <t>67456</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -7754,15 +6364,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D349" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>67621-2024</t>
+          <t>67621</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -7773,18 +6380,13 @@
       <c r="C350" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>67692-2024</t>
+          <t>67692</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -7795,18 +6397,13 @@
       <c r="C351" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>67705-2024</t>
+          <t>67705</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -7818,15 +6415,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D352" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>68113-2024</t>
+          <t>68113</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -7838,15 +6432,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D353" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>68146-2024</t>
+          <t>68146</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -7857,18 +6448,13 @@
       <c r="C354" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>68207-2024</t>
+          <t>68207</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -7877,11 +6463,6 @@
         </is>
       </c>
       <c r="C355" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -7890,7 +6471,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>68224-2024</t>
+          <t>68224</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -7902,15 +6483,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D356" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>68240-2024</t>
+          <t>68240</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -7921,18 +6499,13 @@
       <c r="C357" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>68270-2024</t>
+          <t>68270</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -7944,15 +6517,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D358" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>68400-2024</t>
+          <t>68400</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -7963,18 +6533,13 @@
       <c r="C359" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>68587-2024</t>
+          <t>68587</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -7985,18 +6550,13 @@
       <c r="C360" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>69061-2024</t>
+          <t>69061</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -8008,15 +6568,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D361" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>69696-2024</t>
+          <t>69696</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -8028,15 +6585,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D362" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>69962-2024</t>
+          <t>69962</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -8047,18 +6601,13 @@
       <c r="C363" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>70140-2024</t>
+          <t>70140</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -8070,15 +6619,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D364" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>70142-2024</t>
+          <t>70142</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -8089,18 +6635,13 @@
       <c r="C365" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>70233-2024</t>
+          <t>70233</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -8111,18 +6652,13 @@
       <c r="C366" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>70351-2024</t>
+          <t>70351</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -8131,11 +6667,6 @@
         </is>
       </c>
       <c r="C367" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -8144,7 +6675,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>70406-2024</t>
+          <t>70406</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -8156,15 +6687,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D368" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>70495-2024</t>
+          <t>70495</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -8175,18 +6703,13 @@
       <c r="C369" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>70518-2024</t>
+          <t>70518</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -8198,15 +6721,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D370" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>70807-2024</t>
+          <t>70807</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -8215,11 +6735,6 @@
         </is>
       </c>
       <c r="C371" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -8228,7 +6743,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>71021-2024</t>
+          <t>71021</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -8237,11 +6752,6 @@
         </is>
       </c>
       <c r="C372" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -8250,7 +6760,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>71117-2024</t>
+          <t>71117</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -8261,18 +6771,13 @@
       <c r="C373" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>71635-2024</t>
+          <t>71635</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -8284,15 +6789,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D374" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>71934-2024</t>
+          <t>71934</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -8304,15 +6806,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D375" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>72186-2024</t>
+          <t>72186</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -8324,15 +6823,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D376" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>72200-2024</t>
+          <t>72200</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -8341,11 +6837,6 @@
         </is>
       </c>
       <c r="C377" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -8354,7 +6845,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>72496-2024</t>
+          <t>72496</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -8363,11 +6854,6 @@
         </is>
       </c>
       <c r="C378" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -8376,7 +6862,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>72661-2024</t>
+          <t>72661</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -8388,15 +6874,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D379" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>72824-2024</t>
+          <t>72824</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -8408,15 +6891,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D380" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>72967-2024</t>
+          <t>72967</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -8428,15 +6908,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D381" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>73168-2024</t>
+          <t>73168</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -8448,15 +6925,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D382" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>73248-2024</t>
+          <t>73248</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -8468,15 +6942,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D383" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>73257-2024</t>
+          <t>73257</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -8487,18 +6958,13 @@
       <c r="C384" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>73522-2024</t>
+          <t>73522</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -8509,18 +6975,13 @@
       <c r="C385" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>73620-2024</t>
+          <t>73620</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -8529,11 +6990,6 @@
         </is>
       </c>
       <c r="C386" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -8542,7 +6998,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>73723-2024</t>
+          <t>73723</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -8554,15 +7010,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D387" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>74294-2024</t>
+          <t>74294</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -8574,15 +7027,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D388" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>74433-2024</t>
+          <t>74433</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -8593,18 +7043,13 @@
       <c r="C389" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>74460-2024</t>
+          <t>74460</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -8616,15 +7061,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D390" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>74478-2024</t>
+          <t>74478</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -8636,15 +7078,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D391" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>74553-2024</t>
+          <t>74553</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -8653,11 +7092,6 @@
         </is>
       </c>
       <c r="C392" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -8666,7 +7100,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>74810-2024</t>
+          <t>74810</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -8677,18 +7111,13 @@
       <c r="C393" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>75020-2024</t>
+          <t>75020</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -8700,15 +7129,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D394" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>75230-2024</t>
+          <t>75230</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -8720,15 +7146,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D395" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>75250-2024</t>
+          <t>75250</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -8739,18 +7162,13 @@
       <c r="C396" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>75391-2024</t>
+          <t>75391</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -8762,15 +7180,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D397" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>75773-2024</t>
+          <t>75773</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -8781,18 +7196,13 @@
       <c r="C398" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>75851-2024</t>
+          <t>75851</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -8803,18 +7213,13 @@
       <c r="C399" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>76086-2024</t>
+          <t>76086</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -8826,15 +7231,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D400" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>76213-2024</t>
+          <t>76213</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -8846,15 +7248,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D401" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>76315-2024</t>
+          <t>76315</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -8865,18 +7264,13 @@
       <c r="C402" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>76347-2024</t>
+          <t>76347</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -8888,15 +7282,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D403" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>76483-2024</t>
+          <t>76483</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -8908,15 +7299,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D404" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>76889-2024</t>
+          <t>76889</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -8928,15 +7316,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D405" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>77701-2024</t>
+          <t>77701</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -8948,15 +7333,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D406" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>77712-2024</t>
+          <t>77712</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -8967,18 +7349,13 @@
       <c r="C407" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>77722-2024</t>
+          <t>77722</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -8990,15 +7367,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D408" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>77887-2024</t>
+          <t>77887</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -9010,15 +7384,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D409" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>77926-2024</t>
+          <t>77926</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -9027,11 +7398,6 @@
         </is>
       </c>
       <c r="C410" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -9040,7 +7406,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>78106-2024</t>
+          <t>78106</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -9049,11 +7415,6 @@
         </is>
       </c>
       <c r="C411" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -9062,7 +7423,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>78621-2024</t>
+          <t>78621</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -9074,15 +7435,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D412" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>78628-2024</t>
+          <t>78628</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -9093,18 +7451,13 @@
       <c r="C413" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>78822-2024</t>
+          <t>78822</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -9116,15 +7469,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D414" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>78946-2024</t>
+          <t>78946</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -9136,15 +7486,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D415" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>79154-2024</t>
+          <t>79154</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -9156,15 +7503,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D416" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>79594-2024</t>
+          <t>79594</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -9175,18 +7519,13 @@
       <c r="C417" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>79680-2024</t>
+          <t>79680</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -9198,15 +7537,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D418" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>79876-2024</t>
+          <t>79876</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -9218,15 +7554,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D419" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>80241-2024</t>
+          <t>80241</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -9238,15 +7571,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D420" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>80401-2024</t>
+          <t>80401</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -9257,18 +7587,13 @@
       <c r="C421" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>80550-2024</t>
+          <t>80550</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -9277,11 +7602,6 @@
         </is>
       </c>
       <c r="C422" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -9290,7 +7610,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>80681-2024</t>
+          <t>80681</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -9301,18 +7621,13 @@
       <c r="C423" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>80805-2024</t>
+          <t>80805</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -9323,18 +7638,13 @@
       <c r="C424" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>80898-2024</t>
+          <t>80898</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -9345,18 +7655,13 @@
       <c r="C425" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>81208-2024</t>
+          <t>81208</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -9368,15 +7673,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D426" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>81759-2024</t>
+          <t>81759</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -9385,11 +7687,6 @@
         </is>
       </c>
       <c r="C427" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D427" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -9398,7 +7695,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>82064-2024</t>
+          <t>82064</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -9409,18 +7706,13 @@
       <c r="C428" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>82377-2024</t>
+          <t>82377</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -9431,18 +7723,13 @@
       <c r="C429" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>82494-2024</t>
+          <t>82494</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -9454,15 +7741,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D430" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>82573-2024</t>
+          <t>82573</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -9474,15 +7758,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D431" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>82756-2024</t>
+          <t>82756</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -9494,15 +7775,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D432" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>82810-2024</t>
+          <t>82810</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -9513,18 +7791,13 @@
       <c r="C433" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>82906-2024</t>
+          <t>82906</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -9535,18 +7808,13 @@
       <c r="C434" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D434" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>83112-2024</t>
+          <t>83112</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -9558,15 +7826,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D435" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>83166-2024</t>
+          <t>83166</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -9578,15 +7843,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D436" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>83537-2024</t>
+          <t>83537</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -9597,18 +7859,13 @@
       <c r="C437" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D437" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>83562-2024</t>
+          <t>83562</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -9619,18 +7876,13 @@
       <c r="C438" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D438" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>83586-2024</t>
+          <t>83586</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -9642,15 +7894,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D439" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>83687-2024</t>
+          <t>83687</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -9662,15 +7911,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D440" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>83862-2024</t>
+          <t>83862</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -9682,15 +7928,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D441" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>84005-2024</t>
+          <t>84005</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -9699,11 +7942,6 @@
         </is>
       </c>
       <c r="C442" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D442" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -9712,7 +7950,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>84104-2024</t>
+          <t>84104</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -9724,15 +7962,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D443" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>84187-2024</t>
+          <t>84187</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -9744,15 +7979,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D444" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>84297-2024</t>
+          <t>84297</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -9764,15 +7996,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D445" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>84298-2024</t>
+          <t>84298</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -9784,15 +8013,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D446" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>84421-2024</t>
+          <t>84421</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -9804,15 +8030,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D447" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>84752-2024</t>
+          <t>84752</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -9824,15 +8047,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D448" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>84814-2024</t>
+          <t>84814</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -9844,15 +8064,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D449" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>84872-2024</t>
+          <t>84872</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -9861,11 +8078,6 @@
         </is>
       </c>
       <c r="C450" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D450" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -9874,7 +8086,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>84994-2024</t>
+          <t>84994</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -9886,15 +8098,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D451" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>85111-2024</t>
+          <t>85111</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -9905,18 +8114,13 @@
       <c r="C452" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D452" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>85241-2024</t>
+          <t>85241</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -9928,15 +8132,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D453" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>85810-2024</t>
+          <t>85810</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -9948,15 +8149,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D454" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>85840-2024</t>
+          <t>85840</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -9968,15 +8166,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D455" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>86036-2024</t>
+          <t>86036</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -9988,15 +8183,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D456" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>86387-2024</t>
+          <t>86387</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -10008,15 +8200,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D457" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>86396-2024</t>
+          <t>86396</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -10028,15 +8217,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D458" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>86682-2024</t>
+          <t>86682</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -10047,18 +8233,13 @@
       <c r="C459" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D459" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>86683-2024</t>
+          <t>86683</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -10070,15 +8251,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D460" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>86892-2024</t>
+          <t>86892</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -10089,18 +8267,13 @@
       <c r="C461" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D461" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>87026-2024</t>
+          <t>87026</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -10111,18 +8284,13 @@
       <c r="C462" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>87046-2024</t>
+          <t>87046</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -10134,15 +8302,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D463" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>87081-2024</t>
+          <t>87081</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -10154,15 +8319,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D464" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>87088-2024</t>
+          <t>87088</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -10171,11 +8333,6 @@
         </is>
       </c>
       <c r="C465" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D465" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -10184,7 +8341,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>87128-2024</t>
+          <t>87128</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -10196,15 +8353,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D466" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>87150-2024</t>
+          <t>87150</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -10216,15 +8370,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D467" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>87163-2024</t>
+          <t>87163</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -10236,15 +8387,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D468" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>87172-2024</t>
+          <t>87172</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -10256,15 +8404,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D469" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>88010-2024</t>
+          <t>88010</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -10273,11 +8418,6 @@
         </is>
       </c>
       <c r="C470" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D470" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -10286,7 +8426,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>88041-2024</t>
+          <t>88041</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -10297,18 +8437,13 @@
       <c r="C471" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D471" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>88965-2024</t>
+          <t>88965</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -10320,15 +8455,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D472" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>89567-2024</t>
+          <t>89567</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -10340,15 +8472,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D473" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>89626-2024</t>
+          <t>89626</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -10360,15 +8489,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D474" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>89742-2024</t>
+          <t>89742</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -10380,15 +8506,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D475" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>90429-2024</t>
+          <t>90429</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -10400,15 +8523,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D476" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>90507-2024</t>
+          <t>90507</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -10417,11 +8537,6 @@
         </is>
       </c>
       <c r="C477" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D477" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -10430,7 +8545,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>90852-2024</t>
+          <t>90852</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -10442,15 +8557,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D478" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>91353-2024</t>
+          <t>91353</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -10461,18 +8573,13 @@
       <c r="C479" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>91507-2024</t>
+          <t>91507</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -10483,18 +8590,13 @@
       <c r="C480" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D480" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>91656-2024</t>
+          <t>91656</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -10505,18 +8607,13 @@
       <c r="C481" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D481" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>92174-2024</t>
+          <t>92174</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -10527,18 +8624,13 @@
       <c r="C482" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D482" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>92332-2024</t>
+          <t>92332</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -10549,18 +8641,13 @@
       <c r="C483" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D483" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>92459-2024</t>
+          <t>92459</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -10572,15 +8659,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D484" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>92482-2024</t>
+          <t>92482</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -10591,18 +8675,13 @@
       <c r="C485" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D485" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>93205-2024</t>
+          <t>93205</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -10613,18 +8692,13 @@
       <c r="C486" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>93343-2024</t>
+          <t>93343</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -10635,18 +8709,13 @@
       <c r="C487" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D487" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>93394-2024</t>
+          <t>93394</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -10655,11 +8724,6 @@
         </is>
       </c>
       <c r="C488" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D488" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -10668,7 +8732,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>93420-2024</t>
+          <t>93420</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -10677,11 +8741,6 @@
         </is>
       </c>
       <c r="C489" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D489" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -10690,7 +8749,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>93867-2024</t>
+          <t>93867</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -10702,15 +8761,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D490" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>93927-2024</t>
+          <t>93927</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -10721,18 +8777,13 @@
       <c r="C491" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D491" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>93940-2024</t>
+          <t>93940</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -10744,15 +8795,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D492" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>94138-2024</t>
+          <t>94138</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -10764,15 +8812,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D493" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>94199-2024</t>
+          <t>94199</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -10783,18 +8828,13 @@
       <c r="C494" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D494" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>94376-2024</t>
+          <t>94376</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -10805,18 +8845,13 @@
       <c r="C495" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D495" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>9449-2024</t>
+          <t>9449</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -10827,18 +8862,13 @@
       <c r="C496" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>94731-2024</t>
+          <t>94731</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -10849,18 +8879,13 @@
       <c r="C497" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>94833-2024</t>
+          <t>94833</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -10871,18 +8896,13 @@
       <c r="C498" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D498" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>95035-2024</t>
+          <t>95035</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -10893,18 +8913,13 @@
       <c r="C499" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>95056-2024</t>
+          <t>95056</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -10916,15 +8931,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D500" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>95515-2024</t>
+          <t>95515</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -10935,18 +8947,13 @@
       <c r="C501" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>9558-2024</t>
+          <t>9558</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -10957,18 +8964,13 @@
       <c r="C502" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D502" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>95994-2024</t>
+          <t>95994</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -10979,18 +8981,13 @@
       <c r="C503" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D503" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>96386-2024</t>
+          <t>96386</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -11001,18 +8998,13 @@
       <c r="C504" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>96573-2024</t>
+          <t>96573</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -11024,15 +9016,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D505" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>96842-2024</t>
+          <t>96842</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -11044,15 +9033,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D506" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>96880-2024</t>
+          <t>96880</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -11064,15 +9050,12 @@
         <is>
           <t>Black</t>
         </is>
-      </c>
-      <c r="D507" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>96963-2024</t>
+          <t>96963</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -11081,11 +9064,6 @@
         </is>
       </c>
       <c r="C508" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D508" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -11094,7 +9072,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>96980-2024</t>
+          <t>96980</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -11106,15 +9084,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D509" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>97249-2024</t>
+          <t>97249</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -11125,18 +9100,13 @@
       <c r="C510" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>97331-2024</t>
+          <t>97331</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -11145,11 +9115,6 @@
         </is>
       </c>
       <c r="C511" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D511" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -11158,7 +9123,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>97977-2024</t>
+          <t>97977</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -11167,11 +9132,6 @@
         </is>
       </c>
       <c r="C512" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D512" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -11180,7 +9140,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>98180-2024</t>
+          <t>98180</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -11192,15 +9152,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D513" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>98362-2024</t>
+          <t>98362</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -11212,15 +9169,12 @@
         <is>
           <t>Indian</t>
         </is>
-      </c>
-      <c r="D514" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>98623-2024</t>
+          <t>98623</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -11231,18 +9185,13 @@
       <c r="C515" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>98894-2024</t>
+          <t>98894</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -11254,15 +9203,12 @@
         <is>
           <t>Unknown</t>
         </is>
-      </c>
-      <c r="D516" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>98988-2024</t>
+          <t>98988</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -11273,18 +9219,13 @@
       <c r="C517" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>99120-2024</t>
+          <t>99120</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -11295,18 +9236,13 @@
       <c r="C518" t="inlineStr">
         <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>99314-2024</t>
+          <t>99314</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -11315,11 +9251,6 @@
         </is>
       </c>
       <c r="C519" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D519" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -11328,7 +9259,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>99418-2024</t>
+          <t>99418</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -11339,18 +9270,13 @@
       <c r="C520" t="inlineStr">
         <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>99821-2024</t>
+          <t>99821</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -11362,15 +9288,12 @@
         <is>
           <t>White</t>
         </is>
-      </c>
-      <c r="D521" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>99919-2024</t>
+          <t>99919</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -11381,18 +9304,13 @@
       <c r="C522" t="inlineStr">
         <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>99923-2024</t>
+          <t>99923</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -11401,11 +9319,6 @@
         </is>
       </c>
       <c r="C523" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>

--- a/ccbhc_measurements/dashboard/excel files/ASC_sub_1_stratification.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/ASC_sub_1_stratification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C523"/>
+  <dimension ref="A1:C528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10025</t>
+          <t>10047</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,29 +470,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10047</t>
+          <t>10150</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10150</t>
+          <t>10299</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10266</t>
+          <t>10417</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,48 +514,48 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10299</t>
+          <t>10610</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10309</t>
+          <t>10874</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10417</t>
+          <t>10956</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,14 +565,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10436</t>
+          <t>11461</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -582,14 +582,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10452</t>
+          <t>11710</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -606,58 +606,58 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10686</t>
+          <t>11815</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10874</t>
+          <t>11884</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11226</t>
+          <t>11894</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11332</t>
+          <t>12169</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,31 +667,31 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11461</t>
+          <t>12904</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11524</t>
+          <t>12947</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -708,24 +708,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11534</t>
+          <t>13082</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11710</t>
+          <t>13113</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -742,63 +742,63 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11811</t>
+          <t>13220</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11816</t>
+          <t>13225</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11884</t>
+          <t>13285</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11994</t>
+          <t>13394</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -810,41 +810,41 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12169</t>
+          <t>13449</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12578</t>
+          <t>13575</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12947</t>
+          <t>13585</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -854,14 +854,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>13082</t>
+          <t>13595</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -871,14 +871,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>13113</t>
+          <t>13854</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -888,48 +888,48 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>13211</t>
+          <t>13879</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>13222</t>
+          <t>13948</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13225</t>
+          <t>14132</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -939,31 +939,31 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>13285</t>
+          <t>14199</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13394</t>
+          <t>14630</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -973,14 +973,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13686</t>
+          <t>14690</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -990,14 +990,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>13847</t>
+          <t>14982</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1014,7 +1014,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>13854</t>
+          <t>15302</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1024,14 +1024,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14011</t>
+          <t>15375</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1041,19 +1041,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14630</t>
+          <t>15444</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>14690</t>
+          <t>15772</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1082,41 +1082,41 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>14941</t>
+          <t>15849</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>14982</t>
+          <t>15955</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15302</t>
+          <t>15995</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1126,19 +1126,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>15349</t>
+          <t>16034</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1150,7 +1150,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>15486</t>
+          <t>16181</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1160,14 +1160,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>15849</t>
+          <t>16401</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1177,14 +1177,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>15955</t>
+          <t>16464</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1194,82 +1194,82 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>16034</t>
+          <t>16712</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>16066</t>
+          <t>17434</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>16464</t>
+          <t>17718</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>16601</t>
+          <t>17973</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>16712</t>
+          <t>17980</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1286,7 +1286,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>17067</t>
+          <t>18064</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1296,14 +1296,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>17718</t>
+          <t>18253</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1313,99 +1313,99 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>17759</t>
+          <t>18906</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>18408</t>
+          <t>19171</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>18666</t>
+          <t>19234</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>18906</t>
+          <t>19418</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19142</t>
+          <t>19629</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>19171</t>
+          <t>19780</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>19629</t>
+          <t>19813</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1432,14 +1432,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>19813</t>
+          <t>19831</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1456,58 +1456,58 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>19831</t>
+          <t>19950</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>19950</t>
+          <t>20202</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20433</t>
+          <t>20297</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20897</t>
+          <t>20433</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1517,31 +1517,31 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21664</t>
+          <t>20729</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>21966</t>
+          <t>21268</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1575,41 +1575,41 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22381</t>
+          <t>22085</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>22536</t>
+          <t>22095</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>22566</t>
+          <t>22150</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1626,7 +1626,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>22636</t>
+          <t>22318</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1636,14 +1636,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>22642</t>
+          <t>22381</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1653,14 +1653,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>22777</t>
+          <t>22566</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1670,19 +1670,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>22911</t>
+          <t>22636</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1694,29 +1694,29 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>23056</t>
+          <t>22718</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>23079</t>
+          <t>22777</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1728,12 +1728,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>23216</t>
+          <t>22832</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1745,7 +1745,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>23399</t>
+          <t>22888</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1755,31 +1755,31 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>23635</t>
+          <t>22911</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>23729</t>
+          <t>23032</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1789,14 +1789,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>23781</t>
+          <t>23216</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1806,31 +1806,31 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>23879</t>
+          <t>23366</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>24129</t>
+          <t>23399</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1840,65 +1840,65 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>24295</t>
+          <t>23729</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>24633</t>
+          <t>23879</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>25320</t>
+          <t>24214</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>25557</t>
+          <t>24281</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1908,14 +1908,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>25701</t>
+          <t>24295</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1925,70 +1925,70 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>25702</t>
+          <t>24552</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>25747</t>
+          <t>24633</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>25762</t>
+          <t>25320</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>26444</t>
+          <t>25531</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2000,12 +2000,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>26830</t>
+          <t>25557</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2017,75 +2017,75 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>26865</t>
+          <t>25628</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>27303</t>
+          <t>25647</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>27320</t>
+          <t>25693</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>27472</t>
+          <t>25702</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>25747</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2102,7 +2102,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>28267</t>
+          <t>25762</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2112,14 +2112,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>28526</t>
+          <t>25868</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2136,29 +2136,29 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>28722</t>
+          <t>25925</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>28764</t>
+          <t>25946</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2170,12 +2170,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>28894</t>
+          <t>25994</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2187,75 +2187,75 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>29207</t>
+          <t>26071</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>29231</t>
+          <t>26294</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>29306</t>
+          <t>26332</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>29653</t>
+          <t>26404</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>29835</t>
+          <t>26431</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2265,31 +2265,31 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>29870</t>
+          <t>26444</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>29933</t>
+          <t>26830</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2306,24 +2306,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>30238</t>
+          <t>26865</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>30272</t>
+          <t>27022</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2333,31 +2333,31 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>30441</t>
+          <t>27301</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>30446</t>
+          <t>27303</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2367,14 +2367,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>30575</t>
+          <t>27320</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2391,46 +2391,46 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>30796</t>
+          <t>27698</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>30891</t>
+          <t>27834</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>30925</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2442,12 +2442,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>30987</t>
+          <t>28839</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2459,12 +2459,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>31023</t>
+          <t>28868</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2476,41 +2476,41 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>31192</t>
+          <t>28932</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>31435</t>
+          <t>29207</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>31457</t>
+          <t>29231</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2527,29 +2527,29 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>31470</t>
+          <t>29306</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>31513</t>
+          <t>29616</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2561,7 +2561,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>31833</t>
+          <t>29647</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2571,99 +2571,99 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>32227</t>
+          <t>29653</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>32391</t>
+          <t>29835</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>32851</t>
+          <t>29870</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>33069</t>
+          <t>29933</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>33110</t>
+          <t>30238</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>33137</t>
+          <t>30249</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2673,19 +2673,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>33311</t>
+          <t>30384</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2697,12 +2697,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>33445</t>
+          <t>30469</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2714,7 +2714,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>33622</t>
+          <t>30759</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2731,75 +2731,75 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>33647</t>
+          <t>30782</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>33809</t>
+          <t>30925</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>33855</t>
+          <t>31299</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>33890</t>
+          <t>31332</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>34229</t>
+          <t>31470</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2816,7 +2816,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>34356</t>
+          <t>31620</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2826,14 +2826,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>34630</t>
+          <t>31680</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2843,19 +2843,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>34635</t>
+          <t>32227</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2867,7 +2867,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>34677</t>
+          <t>32440</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2877,82 +2877,82 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>34899</t>
+          <t>32821</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>35567</t>
+          <t>32890</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>35809</t>
+          <t>32985</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>36423</t>
+          <t>33062</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>36523</t>
+          <t>33069</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2969,12 +2969,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>36742</t>
+          <t>33110</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2986,24 +2986,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>36963</t>
+          <t>33311</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>37163</t>
+          <t>33328</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3013,19 +3013,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>37174</t>
+          <t>33524</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3037,7 +3037,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>37348</t>
+          <t>33622</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3047,14 +3047,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>37540</t>
+          <t>33809</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3071,29 +3071,29 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>37630</t>
+          <t>33833</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>37943</t>
+          <t>34159</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3105,7 +3105,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>37983</t>
+          <t>34218</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3115,14 +3115,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>37995</t>
+          <t>34229</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3132,31 +3132,31 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>38189</t>
+          <t>34485</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>38228</t>
+          <t>34630</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3173,7 +3173,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>38361</t>
+          <t>34867</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3183,14 +3183,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>38375</t>
+          <t>34899</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3200,14 +3200,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>38678</t>
+          <t>35548</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3217,14 +3217,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>38788</t>
+          <t>35809</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3234,14 +3234,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>38852</t>
+          <t>36316</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>39113</t>
+          <t>36423</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3268,48 +3268,48 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>39150</t>
+          <t>36462</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>39459</t>
+          <t>36539</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>39533</t>
+          <t>36640</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3319,14 +3319,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>39962</t>
+          <t>36740</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3336,65 +3336,65 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>39981</t>
+          <t>36742</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>40030</t>
+          <t>37034</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>40130</t>
+          <t>37348</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>40440</t>
+          <t>37540</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3411,7 +3411,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>40562</t>
+          <t>37769</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3421,19 +3421,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>40571</t>
+          <t>37943</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3445,7 +3445,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>40576</t>
+          <t>38189</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3455,31 +3455,31 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>40609</t>
+          <t>38361</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>4139</t>
+          <t>38375</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3489,14 +3489,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>41448</t>
+          <t>38675</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3506,104 +3506,104 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>4149</t>
+          <t>38678</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>41635</t>
+          <t>39150</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>41971</t>
+          <t>39261</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>42091</t>
+          <t>39512</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>42149</t>
+          <t>39522</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>42585</t>
+          <t>39962</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3615,7 +3615,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>42629</t>
+          <t>40205</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>42654</t>
+          <t>40230</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3649,12 +3649,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>42824</t>
+          <t>40449</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3666,12 +3666,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>42934</t>
+          <t>40490</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3683,12 +3683,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>42937</t>
+          <t>40571</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3700,24 +3700,24 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>43142</t>
+          <t>40576</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>43438</t>
+          <t>40891</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3727,31 +3727,31 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>43829</t>
+          <t>40895</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>43967</t>
+          <t>41304</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3761,14 +3761,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>44070</t>
+          <t>41448</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3778,19 +3778,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>44188</t>
+          <t>41678</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3802,7 +3802,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>44221</t>
+          <t>41768</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3812,36 +3812,36 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>44516</t>
+          <t>41824</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>44639</t>
+          <t>41971</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3853,24 +3853,24 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>44647</t>
+          <t>42091</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>44767</t>
+          <t>42637</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3880,36 +3880,36 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>45147</t>
+          <t>42934</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>45371</t>
+          <t>43438</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3921,7 +3921,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>45421</t>
+          <t>43450</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3931,19 +3931,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>45733</t>
+          <t>43510</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3955,80 +3955,80 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>45820</t>
+          <t>43577</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>46212</t>
+          <t>43829</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>46388</t>
+          <t>43967</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>46455</t>
+          <t>44188</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>46697</t>
+          <t>44221</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4040,41 +4040,41 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>47462</t>
+          <t>44267</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>47561</t>
+          <t>44370</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>47787</t>
+          <t>44516</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4084,14 +4084,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>47986</t>
+          <t>44639</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4101,14 +4101,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>48003</t>
+          <t>44647</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4125,7 +4125,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>48117</t>
+          <t>44751</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4135,19 +4135,19 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>48229</t>
+          <t>44767</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4159,29 +4159,29 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>48605</t>
+          <t>44912</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>49143</t>
+          <t>45147</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4193,7 +4193,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>49341</t>
+          <t>45421</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4203,48 +4203,48 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>49432</t>
+          <t>45747</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>49495</t>
+          <t>45820</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>49611</t>
+          <t>46034</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4254,14 +4254,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>49809</t>
+          <t>46035</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4278,7 +4278,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>50174</t>
+          <t>46498</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4288,14 +4288,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>50481</t>
+          <t>47023</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4305,48 +4305,48 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>50598</t>
+          <t>47238</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>50612</t>
+          <t>47561</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>50874</t>
+          <t>47986</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -4356,19 +4356,19 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>50894</t>
+          <t>48117</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4380,24 +4380,24 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>51160</t>
+          <t>48229</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>51286</t>
+          <t>48729</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -4414,92 +4414,92 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>51327</t>
+          <t>49432</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>51356</t>
+          <t>49495</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>51628</t>
+          <t>49611</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>51813</t>
+          <t>50175</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>51843</t>
+          <t>50272</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>51857</t>
+          <t>50310</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4509,65 +4509,65 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>51964</t>
+          <t>50598</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>52210</t>
+          <t>50612</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>52225</t>
+          <t>50702</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>52271</t>
+          <t>51054</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4577,53 +4577,53 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>52392</t>
+          <t>51160</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>52435</t>
+          <t>51356</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>52698</t>
+          <t>51628</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4635,24 +4635,24 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>52826</t>
+          <t>51710</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>53000</t>
+          <t>51813</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4662,65 +4662,65 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>53191</t>
+          <t>51857</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>53291</t>
+          <t>52046</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>53455</t>
+          <t>52210</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>53458</t>
+          <t>52225</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4730,36 +4730,36 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>53981</t>
+          <t>52271</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>54179</t>
+          <t>52354</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4771,58 +4771,58 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>54362</t>
+          <t>52392</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>54365</t>
+          <t>52435</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>54571</t>
+          <t>52593</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>54736</t>
+          <t>52698</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -4839,29 +4839,29 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>54822</t>
+          <t>52826</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>54835</t>
+          <t>52959</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4873,7 +4873,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>55022</t>
+          <t>52987</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4890,12 +4890,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>55229</t>
+          <t>53239</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4907,97 +4907,97 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>55444</t>
+          <t>53291</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>55751</t>
+          <t>53314</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>55761</t>
+          <t>53410</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>55839</t>
+          <t>53438</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>55910</t>
+          <t>53981</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>56217</t>
+          <t>54362</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5009,148 +5009,148 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>56228</t>
+          <t>54501</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>56293</t>
+          <t>54571</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>56423</t>
+          <t>54699</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>56442</t>
+          <t>54736</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>56517</t>
+          <t>54822</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>56655</t>
+          <t>55022</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>57705</t>
+          <t>55069</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>57747</t>
+          <t>55414</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>57936</t>
+          <t>55751</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5162,24 +5162,24 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>58027</t>
+          <t>55761</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>58181</t>
+          <t>55839</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -5189,65 +5189,65 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>58202</t>
+          <t>55910</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>58228</t>
+          <t>56228</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>58231</t>
+          <t>56279</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>58288</t>
+          <t>56423</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -5257,70 +5257,70 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>58305</t>
+          <t>56442</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>5842</t>
+          <t>56517</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>58563</t>
+          <t>56719</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>58656</t>
+          <t>56815</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5332,7 +5332,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>58726</t>
+          <t>57040</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -5349,7 +5349,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>59152</t>
+          <t>57297</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -5359,36 +5359,36 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>59188</t>
+          <t>57439</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>59770</t>
+          <t>57705</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5400,46 +5400,46 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>59997</t>
+          <t>57747</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>60226</t>
+          <t>58027</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>60279</t>
+          <t>58106</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5451,114 +5451,114 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>60416</t>
+          <t>58202</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>60442</t>
+          <t>58228</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>60543</t>
+          <t>58287</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>60595</t>
+          <t>58288</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>60759</t>
+          <t>58305</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>61096</t>
+          <t>58324</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>61142</t>
+          <t>58656</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5570,12 +5570,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>61398</t>
+          <t>58726</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5587,7 +5587,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>61428</t>
+          <t>58765</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -5597,31 +5597,31 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>61553</t>
+          <t>58898</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>61743</t>
+          <t>58920</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5631,14 +5631,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>61918</t>
+          <t>58960</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5648,14 +5648,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>61946</t>
+          <t>59025</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5672,12 +5672,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>62028</t>
+          <t>59152</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5689,29 +5689,29 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6225</t>
+          <t>59377</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>62572</t>
+          <t>59770</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5723,7 +5723,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>62663</t>
+          <t>59997</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5740,7 +5740,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>62893</t>
+          <t>60226</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5750,48 +5750,48 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>62975</t>
+          <t>60442</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>63233</t>
+          <t>60595</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>63328</t>
+          <t>60723</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5801,14 +5801,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>63451</t>
+          <t>60869</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5818,14 +5818,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>61049</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5842,24 +5842,24 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>63668</t>
+          <t>61096</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>63846</t>
+          <t>61142</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5869,31 +5869,31 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>63999</t>
+          <t>61341</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>64035</t>
+          <t>61401</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5903,31 +5903,31 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>64165</t>
+          <t>61918</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>64340</t>
+          <t>62028</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5937,53 +5937,53 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>64450</t>
+          <t>62127</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>64726</t>
+          <t>62389</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>64952</t>
+          <t>62975</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -5995,7 +5995,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>65158</t>
+          <t>63184</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -6005,14 +6005,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>65161</t>
+          <t>63233</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -6029,24 +6029,24 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>65248</t>
+          <t>63328</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>65312</t>
+          <t>63451</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -6063,7 +6063,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>65348</t>
+          <t>63846</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -6080,41 +6080,41 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>65490</t>
+          <t>64017</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>65612</t>
+          <t>64035</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>65623</t>
+          <t>64096</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -6124,65 +6124,65 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>65901</t>
+          <t>64165</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>65948</t>
+          <t>64168</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>65977</t>
+          <t>64450</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>66042</t>
+          <t>64607</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -6199,12 +6199,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>66195</t>
+          <t>64849</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6216,46 +6216,46 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>66697</t>
+          <t>64952</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>66745</t>
+          <t>65158</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>66840</t>
+          <t>65161</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6267,41 +6267,41 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>66940</t>
+          <t>65248</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>66964</t>
+          <t>65312</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>67113</t>
+          <t>65490</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -6311,48 +6311,48 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>67177</t>
+          <t>65623</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>67432</t>
+          <t>66195</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>67456</t>
+          <t>66348</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -6362,36 +6362,36 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>67621</t>
+          <t>66790</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>67692</t>
+          <t>67113</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6403,92 +6403,92 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>67705</t>
+          <t>67177</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>68113</t>
+          <t>67362</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>68146</t>
+          <t>67512</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>68207</t>
+          <t>67621</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>68224</t>
+          <t>67705</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>68240</t>
+          <t>68113</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -6498,19 +6498,19 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>68270</t>
+          <t>68146</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6522,12 +6522,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>68400</t>
+          <t>68270</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -6539,41 +6539,41 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>68587</t>
+          <t>68341</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>69061</t>
+          <t>68400</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>69696</t>
+          <t>68554</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -6583,36 +6583,36 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>69962</t>
+          <t>68873</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>70140</t>
+          <t>68875</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6624,7 +6624,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>70142</t>
+          <t>69061</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -6634,14 +6634,14 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>70233</t>
+          <t>69696</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -6651,19 +6651,19 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>70351</t>
+          <t>70205</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6675,29 +6675,29 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>70406</t>
+          <t>70233</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>70495</t>
+          <t>70351</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6709,46 +6709,46 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>70518</t>
+          <t>70359</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>70807</t>
+          <t>70406</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>71021</t>
+          <t>70495</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6760,7 +6760,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>71117</t>
+          <t>70518</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6777,7 +6777,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>71635</t>
+          <t>70807</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6787,31 +6787,31 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>71934</t>
+          <t>71021</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>72186</t>
+          <t>71115</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6828,24 +6828,24 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>72200</t>
+          <t>71198</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>72496</t>
+          <t>71485</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6855,14 +6855,14 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>72661</t>
+          <t>71546</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6872,14 +6872,14 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>72824</t>
+          <t>71635</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6889,14 +6889,14 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>72967</t>
+          <t>71809</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6906,48 +6906,48 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>73168</t>
+          <t>71839</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>73248</t>
+          <t>71934</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>73257</t>
+          <t>72200</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6957,65 +6957,65 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>73522</t>
+          <t>72496</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>73620</t>
+          <t>72559</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>73723</t>
+          <t>72650</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>74294</t>
+          <t>72967</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -7032,29 +7032,29 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>74433</t>
+          <t>73168</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>74460</t>
+          <t>73257</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7066,7 +7066,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>74478</t>
+          <t>73522</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -7076,31 +7076,31 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>74553</t>
+          <t>73723</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>74810</t>
+          <t>74035</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -7110,19 +7110,19 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>75020</t>
+          <t>74090</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -7134,41 +7134,41 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>75230</t>
+          <t>74433</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>75250</t>
+          <t>74478</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>75391</t>
+          <t>74553</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -7178,14 +7178,14 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>75773</t>
+          <t>74646</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -7202,12 +7202,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>75851</t>
+          <t>74866</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7219,63 +7219,63 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>76086</t>
+          <t>75250</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>76213</t>
+          <t>75434</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>76315</t>
+          <t>75697</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>76347</t>
+          <t>75807</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7287,12 +7287,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>76483</t>
+          <t>76051</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7304,75 +7304,75 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>76889</t>
+          <t>76086</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>77701</t>
+          <t>76315</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>77712</t>
+          <t>76612</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>77722</t>
+          <t>77266</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>77887</t>
+          <t>77712</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -7389,41 +7389,41 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>77926</t>
+          <t>77722</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>78106</t>
+          <t>77723</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>78621</t>
+          <t>77834</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -7433,121 +7433,121 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>78628</t>
+          <t>78106</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>78822</t>
+          <t>78309</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>78946</t>
+          <t>78621</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>79154</t>
+          <t>78838</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>79594</t>
+          <t>79154</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>79680</t>
+          <t>79604</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>79876</t>
+          <t>79676</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -7559,41 +7559,41 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>80241</t>
+          <t>79777</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>80401</t>
+          <t>80241</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>80550</t>
+          <t>80551</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -7603,19 +7603,19 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>80681</t>
+          <t>80805</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7627,12 +7627,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>80805</t>
+          <t>80976</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7644,7 +7644,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>80898</t>
+          <t>81281</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -7661,12 +7661,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>81208</t>
+          <t>82064</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -7678,7 +7678,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>81759</t>
+          <t>82377</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -7688,14 +7688,14 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>82064</t>
+          <t>82573</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -7712,12 +7712,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>82377</t>
+          <t>82699</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7729,29 +7729,29 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>82494</t>
+          <t>82949</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>82573</t>
+          <t>83076</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7763,7 +7763,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>82756</t>
+          <t>83112</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -7780,7 +7780,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>82810</t>
+          <t>83166</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -7797,29 +7797,29 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>82906</t>
+          <t>83537</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>83112</t>
+          <t>83562</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7831,29 +7831,29 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>83166</t>
+          <t>83672</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>83537</t>
+          <t>83724</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7865,12 +7865,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>83562</t>
+          <t>83854</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7882,24 +7882,24 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>83586</t>
+          <t>83862</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>83687</t>
+          <t>84005</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -7909,14 +7909,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>83862</t>
+          <t>84086</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -7926,19 +7926,19 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>84005</t>
+          <t>84104</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7950,7 +7950,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>84104</t>
+          <t>84212</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7960,48 +7960,48 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>84187</t>
+          <t>84298</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>84297</t>
+          <t>84421</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>84298</t>
+          <t>84431</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -8018,24 +8018,24 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>84421</t>
+          <t>84744</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>84752</t>
+          <t>84814</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -8045,14 +8045,14 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>84814</t>
+          <t>84926</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -8069,41 +8069,41 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>84872</t>
+          <t>85241</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>84994</t>
+          <t>85284</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>85111</t>
+          <t>85770</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -8113,31 +8113,31 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>85241</t>
+          <t>85810</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>85810</t>
+          <t>86036</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -8147,14 +8147,14 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>85840</t>
+          <t>86387</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -8164,19 +8164,19 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>86036</t>
+          <t>86396</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8188,7 +8188,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>86387</t>
+          <t>86682</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -8205,126 +8205,126 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>86396</t>
+          <t>86683</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>86682</t>
+          <t>87081</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>86683</t>
+          <t>87150</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>86892</t>
+          <t>87172</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>87026</t>
+          <t>87893</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>87046</t>
+          <t>88010</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>87081</t>
+          <t>88041</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>87088</t>
+          <t>88118</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -8341,46 +8341,46 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>87128</t>
+          <t>88652</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>87150</t>
+          <t>88714</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>87163</t>
+          <t>88751</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8392,12 +8392,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>87172</t>
+          <t>88965</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8409,7 +8409,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>88010</t>
+          <t>89567</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -8419,19 +8419,19 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>88041</t>
+          <t>89746</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -8443,75 +8443,75 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>88965</t>
+          <t>89783</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>89567</t>
+          <t>90002</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>89626</t>
+          <t>90185</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>89742</t>
+          <t>90581</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>90429</t>
+          <t>90687</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -8521,14 +8521,14 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>90507</t>
+          <t>90833</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -8545,12 +8545,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>90852</t>
+          <t>90851</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -8562,12 +8562,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>91353</t>
+          <t>90852</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -8579,12 +8579,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>91507</t>
+          <t>91353</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8596,29 +8596,29 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>91656</t>
+          <t>91436</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>92174</t>
+          <t>91998</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -8630,29 +8630,29 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>92332</t>
+          <t>91999</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>92459</t>
+          <t>92064</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8664,12 +8664,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>92482</t>
+          <t>92261</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -8681,80 +8681,80 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>93205</t>
+          <t>92332</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>93343</t>
+          <t>92459</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>93394</t>
+          <t>92482</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>93420</t>
+          <t>92731</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>93867</t>
+          <t>93049</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8766,41 +8766,41 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>93927</t>
+          <t>93343</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>93940</t>
+          <t>93420</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>94138</t>
+          <t>93502</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -8810,65 +8810,65 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>94199</t>
+          <t>93940</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>94376</t>
+          <t>94111</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>9449</t>
+          <t>94118</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>94731</t>
+          <t>94833</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -8878,14 +8878,14 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>94833</t>
+          <t>95035</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -8902,63 +8902,63 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>95035</t>
+          <t>95056</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>95056</t>
+          <t>95285</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>95515</t>
+          <t>95529</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>9558</t>
+          <t>95946</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -8970,12 +8970,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>95994</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -8987,29 +8987,29 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>96386</t>
+          <t>96249</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>96573</t>
+          <t>96274</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9021,12 +9021,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>96842</t>
+          <t>96287</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -9038,12 +9038,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>96880</t>
+          <t>96922</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -9065,7 +9065,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9094,19 +9094,19 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>97331</t>
+          <t>97304</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -9123,46 +9123,46 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>97977</t>
+          <t>97331</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>98180</t>
+          <t>97780</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>98362</t>
+          <t>97948</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -9174,7 +9174,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>98623</t>
+          <t>97977</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -9184,19 +9184,19 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>98894</t>
+          <t>98180</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9208,12 +9208,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>98988</t>
+          <t>98362</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -9225,7 +9225,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>99120</t>
+          <t>98623</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -9235,14 +9235,14 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>99314</t>
+          <t>98988</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -9252,14 +9252,14 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>99418</t>
+          <t>99116</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -9269,56 +9269,141 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>99821</t>
+          <t>99608</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>99919</t>
+          <t>99772</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
+          <t>99776</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>99821</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>99902</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>99919</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
           <t>99923</t>
         </is>
       </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>Not Hispanic</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr">
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>99932</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
